--- a/public/uploads/invoice/ERS05071-Invoice2.xlsx
+++ b/public/uploads/invoice/ERS05071-Invoice2.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Client Invoice Export" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Client Invoice Export'!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Client Invoice Export'!$A$1:$T$26</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>INVOICE</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Lakeview Road Bridge</t>
   </si>
   <si>
-    <t>02/09/2026</t>
+    <t>02/11/2026</t>
   </si>
   <si>
     <t>1258 Willingham Dr</t>
@@ -205,34 +205,7 @@
     <t>CLASS B CONC, BASE OR PVMT WIDENING</t>
   </si>
   <si>
-    <t>CONC CATCH BASIN TOP &amp; THROAT</t>
-  </si>
-  <si>
-    <t>CONC DROP INLET</t>
-  </si>
-  <si>
     <t>CONC CURB &amp; GUTTER 8 IN X 30 IN TP 2</t>
-  </si>
-  <si>
-    <t>ADJUST MANHOLE TO GRADE</t>
-  </si>
-  <si>
-    <t>6 IN HEADER CURB</t>
-  </si>
-  <si>
-    <t>ADJUST WATER VALVE TO GRADE</t>
-  </si>
-  <si>
-    <t>4 IN SIDEWALK $5 LOT</t>
-  </si>
-  <si>
-    <t>4 INCH V-GUTTER</t>
-  </si>
-  <si>
-    <t>6 IN DUMPSTER PAD (DOES NOT INCLUDE CATCH BASIN)</t>
-  </si>
-  <si>
-    <t>6' CONCRETE SIDEWALK</t>
   </si>
   <si>
     <t>BOND</t>
@@ -250,13 +223,7 @@
     <t>CY</t>
   </si>
   <si>
-    <t>EA</t>
-  </si>
-  <si>
     <t>LF</t>
-  </si>
-  <si>
-    <t>SF</t>
   </si>
   <si>
     <t>LS</t>
@@ -1636,10 +1603,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD1017"/>
+  <dimension ref="A1:AD1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.43" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2267,7 +2234,7 @@
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
       <c r="E16" s="117" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F16" s="118">
         <v>87.0</v>
@@ -2291,10 +2258,10 @@
         <v>2175.0</v>
       </c>
       <c r="M16" s="119">
-        <v>121.93000000000001</v>
+        <v>25.0</v>
       </c>
       <c r="N16" s="118">
-        <v>10607.90999999999985</v>
+        <v>2175.0</v>
       </c>
       <c r="O16" s="119">
         <v>61.93</v>
@@ -2304,10 +2271,10 @@
       </c>
       <c r="Q16" s="120"/>
       <c r="R16" s="119">
-        <v>121.93000000000001</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="S16" s="118">
-        <v>10607.90999999999985</v>
+        <v>5822.91000000000076</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="57"/>
@@ -2331,7 +2298,7 @@
       <c r="C17" s="115"/>
       <c r="D17" s="115"/>
       <c r="E17" s="117" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F17" s="118">
         <v>58.0</v>
@@ -2355,10 +2322,10 @@
         <v>57623.58000000000175</v>
       </c>
       <c r="M17" s="119">
-        <v>676.88</v>
+        <v>993.50999999999999</v>
       </c>
       <c r="N17" s="118">
-        <v>39259.040000000000873</v>
+        <v>57623.58000000000175</v>
       </c>
       <c r="O17" s="119">
         <v>376.88</v>
@@ -2368,10 +2335,10 @@
       </c>
       <c r="Q17" s="120"/>
       <c r="R17" s="119">
-        <v>676.88</v>
+        <v>376.88</v>
       </c>
       <c r="S17" s="118">
-        <v>39259.040000000000873</v>
+        <v>21859.040000000000873</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="57"/>
@@ -2395,7 +2362,7 @@
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
       <c r="E18" s="117" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F18" s="118">
         <v>386.0</v>
@@ -2419,10 +2386,10 @@
         <v>15440.0</v>
       </c>
       <c r="M18" s="119">
-        <v>2.5</v>
+        <v>40.0</v>
       </c>
       <c r="N18" s="118">
-        <v>965.0</v>
+        <v>15440.0</v>
       </c>
       <c r="O18" s="119">
         <v>2.5</v>
@@ -2459,47 +2426,47 @@
       <c r="C19" s="115"/>
       <c r="D19" s="115"/>
       <c r="E19" s="117" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F19" s="118">
-        <v>2200.0</v>
+        <v>36.0</v>
       </c>
       <c r="G19" s="119">
-        <v>17.0</v>
+        <v>2810.0</v>
       </c>
       <c r="H19" s="118">
-        <v>37400.0</v>
+        <v>101160.0</v>
       </c>
       <c r="I19" s="119">
-        <v>35.5</v>
+        <v>2572.0</v>
       </c>
       <c r="J19" s="118">
-        <v>78100.0</v>
+        <v>92592.0</v>
       </c>
       <c r="K19" s="119">
-        <v>35.5</v>
+        <v>2506.0</v>
       </c>
       <c r="L19" s="118">
-        <v>78100.0</v>
+        <v>90216.0</v>
       </c>
       <c r="M19" s="119">
-        <v>0.0</v>
+        <v>2506.0</v>
       </c>
       <c r="N19" s="118">
-        <v>0.0</v>
+        <v>90216.0</v>
       </c>
       <c r="O19" s="119">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="P19" s="118">
-        <v>0.0</v>
+        <v>2376.0</v>
       </c>
       <c r="Q19" s="120"/>
       <c r="R19" s="119">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="S19" s="118">
-        <v>0.0</v>
+        <v>2376.0</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="57"/>
@@ -2523,47 +2490,47 @@
       <c r="C20" s="115"/>
       <c r="D20" s="115"/>
       <c r="E20" s="117" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F20" s="118">
-        <v>800.0</v>
+        <v>-1823.75</v>
       </c>
       <c r="G20" s="119">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H20" s="118">
-        <v>1600.0</v>
+        <v>-1823.75</v>
       </c>
       <c r="I20" s="119">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" s="118">
-        <v>17600.0</v>
+        <v>-1823.75</v>
       </c>
       <c r="K20" s="119">
-        <v>22.0</v>
+        <v>0.97</v>
       </c>
       <c r="L20" s="118">
-        <v>17600.0</v>
+        <v>-1769.037499999999909</v>
       </c>
       <c r="M20" s="119">
-        <v>0.0</v>
+        <v>0.028267882836398</v>
       </c>
       <c r="N20" s="118">
-        <v>0.0</v>
+        <v>-51.55</v>
       </c>
       <c r="O20" s="119">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
       <c r="P20" s="118">
-        <v>0.0</v>
+        <v>-54.7125</v>
       </c>
       <c r="Q20" s="120"/>
       <c r="R20" s="119">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
       <c r="S20" s="118">
-        <v>0.0</v>
+        <v>-54.7125</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="57"/>
@@ -2577,58 +2544,26 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" customHeight="1" ht="18">
-      <c r="A21" s="115">
-        <v>6</v>
-      </c>
-      <c r="B21" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="118">
-        <v>36.0</v>
-      </c>
-      <c r="G21" s="119">
-        <v>2810.0</v>
-      </c>
-      <c r="H21" s="118">
-        <v>101160.0</v>
-      </c>
-      <c r="I21" s="119">
-        <v>2572.0</v>
-      </c>
-      <c r="J21" s="118">
-        <v>92592.0</v>
-      </c>
-      <c r="K21" s="119">
-        <v>2506.0</v>
-      </c>
-      <c r="L21" s="118">
-        <v>90216.0</v>
-      </c>
-      <c r="M21" s="119">
-        <v>66.0</v>
-      </c>
-      <c r="N21" s="118">
-        <v>2376.0</v>
-      </c>
-      <c r="O21" s="119">
-        <v>66.0</v>
-      </c>
-      <c r="P21" s="118">
-        <v>2376.0</v>
-      </c>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="119">
-        <v>66.0</v>
-      </c>
-      <c r="S21" s="118">
-        <v>2376.0</v>
-      </c>
+    <row r="21" spans="1:30" customHeight="1" ht="10">
+      <c r="A21" s="121"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
       <c r="T21" s="1"/>
       <c r="U21" s="57"/>
       <c r="V21" s="57"/>
@@ -2641,58 +2576,28 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" customHeight="1" ht="18">
-      <c r="A22" s="115">
-        <v>7</v>
-      </c>
-      <c r="B22" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="118">
-        <v>20.0</v>
-      </c>
-      <c r="G22" s="119">
-        <v>500.0</v>
-      </c>
-      <c r="H22" s="118">
-        <v>10000.0</v>
-      </c>
-      <c r="I22" s="119">
-        <v>50.0</v>
-      </c>
-      <c r="J22" s="118">
-        <v>1000.0</v>
-      </c>
-      <c r="K22" s="119">
-        <v>50.0</v>
-      </c>
-      <c r="L22" s="118">
-        <v>1000.0</v>
-      </c>
-      <c r="M22" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="O22" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P22" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S22" s="118">
-        <v>0.0</v>
-      </c>
+    <row r="22" spans="1:30" customHeight="1" ht="22">
+      <c r="A22" s="131"/>
+      <c r="B22" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
       <c r="T22" s="1"/>
       <c r="U22" s="57"/>
       <c r="V22" s="57"/>
@@ -2707,55 +2612,55 @@
     </row>
     <row r="23" spans="1:30" customHeight="1" ht="18">
       <c r="A23" s="115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="115"/>
       <c r="D23" s="115"/>
       <c r="E23" s="117" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F23" s="118">
-        <v>20.0</v>
+        <v>124.0</v>
       </c>
       <c r="G23" s="119">
-        <v>523.0</v>
+        <v>0.0</v>
       </c>
       <c r="H23" s="118">
-        <v>10460.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" s="119">
-        <v>12.0</v>
+        <v>124.22</v>
       </c>
       <c r="J23" s="118">
-        <v>240.0</v>
+        <v>15403.28000000000065</v>
       </c>
       <c r="K23" s="119">
-        <v>12.0</v>
+        <v>34.0</v>
       </c>
       <c r="L23" s="118">
-        <v>240.0</v>
+        <v>4216.0</v>
       </c>
       <c r="M23" s="119">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="N23" s="118">
-        <v>0.0</v>
+        <v>4216.0</v>
       </c>
       <c r="O23" s="119">
-        <v>0.0</v>
+        <v>90.22</v>
       </c>
       <c r="P23" s="118">
-        <v>0.0</v>
+        <v>11187.28000000000065</v>
       </c>
       <c r="Q23" s="120"/>
       <c r="R23" s="119">
-        <v>0.0</v>
+        <v>90.22</v>
       </c>
       <c r="S23" s="118">
-        <v>0.0</v>
+        <v>11187.28000000000065</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="57"/>
@@ -2769,57 +2674,55 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" customHeight="1" ht="18">
-      <c r="A24" s="115">
-        <v>9</v>
-      </c>
-      <c r="B24" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="118">
-        <v>10.0</v>
-      </c>
-      <c r="G24" s="119">
-        <v>125.0</v>
-      </c>
-      <c r="H24" s="118">
-        <v>1250.0</v>
-      </c>
-      <c r="I24" s="119">
-        <v>32.0</v>
-      </c>
-      <c r="J24" s="118">
-        <v>320.0</v>
-      </c>
-      <c r="K24" s="119">
-        <v>32.0</v>
-      </c>
-      <c r="L24" s="118">
-        <v>320.0</v>
-      </c>
-      <c r="M24" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="O24" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P24" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S24" s="118">
-        <v>0.0</v>
+    <row r="24" spans="1:30" customHeight="1" ht="53.25">
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="92">
+        <f>SUM(H16:H23)</f>
+        <v>197123.25</v>
+      </c>
+      <c r="I24" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="94">
+        <f>SUM(J16:J23)</f>
+        <v>209622.059999999997672</v>
+      </c>
+      <c r="K24" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="96">
+        <f>SUM(L16:L23)</f>
+        <v>167901.54250000001048</v>
+      </c>
+      <c r="M24" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="98">
+        <f>SUM(N16:N23)</f>
+        <v>169619.03000000002794</v>
+      </c>
+      <c r="O24" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="100">
+        <f>SUM(P16:P23)</f>
+        <v>41720.51750000000175</v>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="S24" s="102">
+        <f>SUM(S16:S23)</f>
+        <v>42155.51750000000175</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="57"/>
@@ -2833,61 +2736,34 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" customHeight="1" ht="18">
-      <c r="A25" s="115">
-        <v>10</v>
-      </c>
-      <c r="B25" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="118">
-        <v>10.0</v>
-      </c>
-      <c r="G25" s="119">
-        <v>150.0</v>
-      </c>
-      <c r="H25" s="118">
-        <v>1500.0</v>
-      </c>
-      <c r="I25" s="119">
+    <row r="25" spans="1:30" customHeight="1" ht="40">
+      <c r="A25" s="103"/>
+      <c r="B25" s="104"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="134">
         <v>0.0</v>
       </c>
-      <c r="J25" s="118">
+      <c r="K25" s="106"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="133">
         <v>0.0</v>
       </c>
-      <c r="K25" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M25" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="O25" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P25" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S25" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="110"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -2897,61 +2773,36 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" customHeight="1" ht="18">
-      <c r="A26" s="115">
-        <v>11</v>
-      </c>
-      <c r="B26" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="118">
-        <v>10.0</v>
-      </c>
-      <c r="G26" s="119">
-        <v>120.0</v>
-      </c>
-      <c r="H26" s="118">
-        <v>1200.0</v>
-      </c>
-      <c r="I26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="K26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="O26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P26" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S26" s="118">
-        <v>0.0</v>
+    <row r="26" spans="1:30" customHeight="1" ht="48.75">
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="134">
+        <f>J24-J25</f>
+        <v>209622.059999999997672</v>
+      </c>
+      <c r="K26" s="106"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" s="136">
+        <f>S24-S25</f>
+        <v>42155.51750000000175</v>
       </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
+      <c r="U26" s="110"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -2961,61 +2812,27 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" customHeight="1" ht="18">
-      <c r="A27" s="115">
-        <v>12</v>
-      </c>
-      <c r="B27" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="118">
-        <v>10.0</v>
-      </c>
-      <c r="G27" s="119">
-        <v>500.0</v>
-      </c>
-      <c r="H27" s="118">
-        <v>5000.0</v>
-      </c>
-      <c r="I27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="O27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P27" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S27" s="118">
-        <v>0.0</v>
-      </c>
+    <row r="27" spans="1:30" customHeight="1" ht="23.25">
+      <c r="A27" s="103"/>
+      <c r="B27" s="104"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -3025,61 +2842,27 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" customHeight="1" ht="18">
-      <c r="A28" s="115">
-        <v>13</v>
-      </c>
-      <c r="B28" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="118">
-        <v>12.0</v>
-      </c>
-      <c r="G28" s="119">
-        <v>250.0</v>
-      </c>
-      <c r="H28" s="118">
-        <v>3000.0</v>
-      </c>
-      <c r="I28" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L28" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M28" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="O28" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P28" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S28" s="118">
-        <v>0.0</v>
-      </c>
+    <row r="28" spans="1:30" customHeight="1" ht="29.25">
+      <c r="A28" s="103"/>
+      <c r="B28" s="104"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -3089,61 +2872,27 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" customHeight="1" ht="18">
-      <c r="A29" s="115">
-        <v>14</v>
-      </c>
-      <c r="B29" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="118">
-        <v>-1823.75</v>
-      </c>
-      <c r="G29" s="119">
-        <v>1.0</v>
-      </c>
-      <c r="H29" s="118">
-        <v>-1823.75</v>
-      </c>
-      <c r="I29" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L29" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M29" s="119">
-        <v>0.028268</v>
-      </c>
-      <c r="N29" s="118">
-        <v>-51.55</v>
-      </c>
-      <c r="O29" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P29" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S29" s="118">
-        <v>0.0</v>
-      </c>
+    <row r="29" spans="1:30" customHeight="1" ht="31.5">
+      <c r="A29" s="103"/>
+      <c r="B29" s="104"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -3153,29 +2902,27 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" customHeight="1" ht="10">
-      <c r="A30" s="121"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
+    <row r="30" spans="1:30" customHeight="1" ht="30">
+      <c r="A30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -3185,31 +2932,27 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" customHeight="1" ht="22">
-      <c r="A31" s="131"/>
-      <c r="B31" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
+    <row r="31" spans="1:30" customHeight="1" ht="30">
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -3219,61 +2962,27 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" customHeight="1" ht="18">
-      <c r="A32" s="115">
-        <v>15</v>
-      </c>
-      <c r="B32" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="118">
-        <v>124.0</v>
-      </c>
-      <c r="G32" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="119">
-        <v>124.22</v>
-      </c>
-      <c r="J32" s="118">
-        <v>15403.28000000000065</v>
-      </c>
-      <c r="K32" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="L32" s="118">
-        <v>4216.0</v>
-      </c>
-      <c r="M32" s="119">
-        <v>90.22</v>
-      </c>
-      <c r="N32" s="118">
-        <v>11187.28000000000065</v>
-      </c>
-      <c r="O32" s="119">
-        <v>90.22</v>
-      </c>
-      <c r="P32" s="118">
-        <v>11187.28000000000065</v>
-      </c>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="119">
-        <v>90.22</v>
-      </c>
-      <c r="S32" s="118">
-        <v>11187.28000000000065</v>
-      </c>
+    <row r="32" spans="1:30" customHeight="1" ht="15">
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -3283,59 +2992,27 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" customHeight="1" ht="53.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="92">
-        <f>SUM(H16:H32)</f>
-        <v>268533.25</v>
-      </c>
-      <c r="I33" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="94">
-        <f>SUM(J16:J32)</f>
-        <v>308705.81000000005588</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="96">
-        <f>SUM(L16:L32)</f>
-        <v>266930.5800000000163</v>
-      </c>
-      <c r="M33" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="98">
-        <f>SUM(N16:N32)</f>
-        <v>64343.67999999999302</v>
-      </c>
-      <c r="O33" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="100">
-        <f>SUM(P16:P32)</f>
-        <v>41775.2300000000032</v>
-      </c>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="S33" s="102">
-        <f>SUM(S16:S32)</f>
-        <v>64395.22999999999593</v>
-      </c>
+    <row r="33" spans="1:30" customHeight="1" ht="15">
+      <c r="A33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -3345,34 +3022,27 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" customHeight="1" ht="40">
+    <row r="34" spans="1:30" customHeight="1" ht="15">
       <c r="A34" s="103"/>
       <c r="B34" s="104"/>
       <c r="E34" s="103"/>
       <c r="F34" s="105"/>
       <c r="G34" s="105"/>
       <c r="H34" s="106"/>
-      <c r="I34" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="134">
-        <v>0.0</v>
-      </c>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
       <c r="K34" s="106"/>
-      <c r="L34" s="7"/>
+      <c r="L34" s="108"/>
       <c r="M34" s="108"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="S34" s="133">
-        <v>0.0</v>
-      </c>
-      <c r="T34" s="57"/>
-      <c r="U34" s="110"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -3382,36 +3052,27 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" customHeight="1" ht="48.75">
+    <row r="35" spans="1:30" customHeight="1" ht="15">
       <c r="A35" s="103"/>
       <c r="B35" s="104"/>
       <c r="E35" s="103"/>
       <c r="F35" s="105"/>
       <c r="G35" s="105"/>
       <c r="H35" s="106"/>
-      <c r="I35" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="134">
-        <f>J33-J34</f>
-        <v>308705.81000000005588</v>
-      </c>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
       <c r="K35" s="106"/>
       <c r="L35" s="108"/>
       <c r="M35" s="108"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
       <c r="P35" s="111"/>
       <c r="Q35" s="112"/>
-      <c r="R35" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="S35" s="136">
-        <f>S33-S34</f>
-        <v>64395.22999999999593</v>
-      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="110"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -3421,20 +3082,20 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" customHeight="1" ht="23.25">
+    <row r="36" spans="1:30" customHeight="1" ht="15">
       <c r="A36" s="103"/>
       <c r="B36" s="104"/>
       <c r="E36" s="103"/>
       <c r="F36" s="105"/>
       <c r="G36" s="105"/>
       <c r="H36" s="106"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
       <c r="K36" s="106"/>
       <c r="L36" s="108"/>
       <c r="M36" s="108"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="114"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
       <c r="P36" s="111"/>
       <c r="Q36" s="112"/>
       <c r="R36" s="1"/>
@@ -3451,20 +3112,20 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" customHeight="1" ht="29.25">
+    <row r="37" spans="1:30" customHeight="1" ht="15">
       <c r="A37" s="103"/>
       <c r="B37" s="104"/>
       <c r="E37" s="103"/>
       <c r="F37" s="105"/>
       <c r="G37" s="105"/>
       <c r="H37" s="106"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
       <c r="K37" s="106"/>
       <c r="L37" s="108"/>
       <c r="M37" s="108"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="114"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="112"/>
       <c r="R37" s="1"/>
@@ -3481,7 +3142,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" customHeight="1" ht="31.5">
+    <row r="38" spans="1:30" customHeight="1" ht="15">
       <c r="A38" s="103"/>
       <c r="B38" s="104"/>
       <c r="E38" s="103"/>
@@ -3493,8 +3154,8 @@
       <c r="K38" s="106"/>
       <c r="L38" s="108"/>
       <c r="M38" s="108"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="114"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="112"/>
       <c r="R38" s="1"/>
@@ -3511,7 +3172,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" customHeight="1" ht="30">
+    <row r="39" spans="1:30" customHeight="1" ht="15">
       <c r="A39" s="103"/>
       <c r="B39" s="104"/>
       <c r="E39" s="103"/>
@@ -3523,8 +3184,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="108"/>
       <c r="M39" s="108"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="114"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
       <c r="P39" s="111"/>
       <c r="Q39" s="112"/>
       <c r="R39" s="1"/>
@@ -3541,7 +3202,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" customHeight="1" ht="30">
+    <row r="40" spans="1:30" customHeight="1" ht="15">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
       <c r="E40" s="103"/>
@@ -3553,8 +3214,8 @@
       <c r="K40" s="106"/>
       <c r="L40" s="108"/>
       <c r="M40" s="108"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="114"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
       <c r="P40" s="111"/>
       <c r="Q40" s="112"/>
       <c r="R40" s="1"/>
@@ -3939,8 +3600,8 @@
       <c r="G53" s="105"/>
       <c r="H53" s="106"/>
       <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
       <c r="L53" s="108"/>
       <c r="M53" s="108"/>
       <c r="N53" s="111"/>
@@ -3969,8 +3630,8 @@
       <c r="G54" s="105"/>
       <c r="H54" s="106"/>
       <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
       <c r="L54" s="108"/>
       <c r="M54" s="108"/>
       <c r="N54" s="111"/>
@@ -3999,8 +3660,8 @@
       <c r="G55" s="105"/>
       <c r="H55" s="106"/>
       <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="103"/>
       <c r="L55" s="108"/>
       <c r="M55" s="108"/>
       <c r="N55" s="111"/>
@@ -4029,8 +3690,8 @@
       <c r="G56" s="105"/>
       <c r="H56" s="106"/>
       <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="103"/>
       <c r="L56" s="108"/>
       <c r="M56" s="108"/>
       <c r="N56" s="111"/>
@@ -4059,13 +3720,13 @@
       <c r="G57" s="105"/>
       <c r="H57" s="106"/>
       <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="111"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="111"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
       <c r="Q57" s="112"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -4089,13 +3750,13 @@
       <c r="G58" s="105"/>
       <c r="H58" s="106"/>
       <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="108"/>
-      <c r="M58" s="108"/>
-      <c r="N58" s="111"/>
-      <c r="O58" s="111"/>
-      <c r="P58" s="111"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
       <c r="Q58" s="112"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -4119,13 +3780,13 @@
       <c r="G59" s="105"/>
       <c r="H59" s="106"/>
       <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="108"/>
-      <c r="M59" s="108"/>
-      <c r="N59" s="111"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
       <c r="Q59" s="112"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -4149,13 +3810,13 @@
       <c r="G60" s="105"/>
       <c r="H60" s="106"/>
       <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="108"/>
-      <c r="N60" s="111"/>
-      <c r="O60" s="111"/>
-      <c r="P60" s="111"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
       <c r="Q60" s="112"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -4179,13 +3840,13 @@
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="106"/>
-      <c r="L61" s="108"/>
-      <c r="M61" s="108"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="103"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
       <c r="Q61" s="112"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -4211,11 +3872,11 @@
       <c r="I62" s="106"/>
       <c r="J62" s="103"/>
       <c r="K62" s="103"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="111"/>
-      <c r="O62" s="111"/>
-      <c r="P62" s="111"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
       <c r="Q62" s="112"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -4241,11 +3902,11 @@
       <c r="I63" s="106"/>
       <c r="J63" s="103"/>
       <c r="K63" s="103"/>
-      <c r="L63" s="108"/>
-      <c r="M63" s="108"/>
-      <c r="N63" s="111"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
       <c r="Q63" s="112"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -4271,11 +3932,11 @@
       <c r="I64" s="106"/>
       <c r="J64" s="103"/>
       <c r="K64" s="103"/>
-      <c r="L64" s="108"/>
-      <c r="M64" s="108"/>
-      <c r="N64" s="111"/>
-      <c r="O64" s="111"/>
-      <c r="P64" s="111"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
       <c r="Q64" s="112"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -4301,11 +3962,11 @@
       <c r="I65" s="106"/>
       <c r="J65" s="103"/>
       <c r="K65" s="103"/>
-      <c r="L65" s="108"/>
-      <c r="M65" s="108"/>
-      <c r="N65" s="111"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
       <c r="Q65" s="112"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -4389,8 +4050,8 @@
       <c r="G68" s="105"/>
       <c r="H68" s="106"/>
       <c r="I68" s="106"/>
-      <c r="J68" s="103"/>
-      <c r="K68" s="103"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="3"/>
@@ -4419,8 +4080,8 @@
       <c r="G69" s="105"/>
       <c r="H69" s="106"/>
       <c r="I69" s="106"/>
-      <c r="J69" s="103"/>
-      <c r="K69" s="103"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="3"/>
@@ -4449,8 +4110,8 @@
       <c r="G70" s="105"/>
       <c r="H70" s="106"/>
       <c r="I70" s="106"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="103"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="3"/>
@@ -4479,8 +4140,8 @@
       <c r="G71" s="105"/>
       <c r="H71" s="106"/>
       <c r="I71" s="106"/>
-      <c r="J71" s="103"/>
-      <c r="K71" s="103"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="3"/>
@@ -4509,8 +4170,8 @@
       <c r="G72" s="105"/>
       <c r="H72" s="106"/>
       <c r="I72" s="106"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="103"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="3"/>
@@ -4539,8 +4200,8 @@
       <c r="G73" s="105"/>
       <c r="H73" s="106"/>
       <c r="I73" s="106"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="103"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
@@ -4569,8 +4230,8 @@
       <c r="G74" s="105"/>
       <c r="H74" s="106"/>
       <c r="I74" s="106"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="3"/>
@@ -4595,12 +4256,12 @@
       <c r="A75" s="103"/>
       <c r="B75" s="104"/>
       <c r="E75" s="103"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
       <c r="H75" s="106"/>
       <c r="I75" s="106"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
@@ -4625,12 +4286,12 @@
       <c r="A76" s="103"/>
       <c r="B76" s="104"/>
       <c r="E76" s="103"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="3"/>
@@ -4655,8 +4316,8 @@
       <c r="A77" s="103"/>
       <c r="B77" s="104"/>
       <c r="E77" s="103"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
       <c r="H77" s="106"/>
       <c r="I77" s="106"/>
       <c r="J77" s="2"/>
@@ -4685,8 +4346,8 @@
       <c r="A78" s="103"/>
       <c r="B78" s="104"/>
       <c r="E78" s="103"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
       <c r="H78" s="106"/>
       <c r="I78" s="106"/>
       <c r="J78" s="2"/>
@@ -4715,8 +4376,8 @@
       <c r="A79" s="103"/>
       <c r="B79" s="104"/>
       <c r="E79" s="103"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="105"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
       <c r="H79" s="106"/>
       <c r="I79" s="106"/>
       <c r="J79" s="2"/>
@@ -4745,8 +4406,8 @@
       <c r="A80" s="103"/>
       <c r="B80" s="104"/>
       <c r="E80" s="103"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="103"/>
       <c r="H80" s="106"/>
       <c r="I80" s="106"/>
       <c r="J80" s="2"/>
@@ -4775,8 +4436,8 @@
       <c r="A81" s="103"/>
       <c r="B81" s="104"/>
       <c r="E81" s="103"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
       <c r="H81" s="106"/>
       <c r="I81" s="106"/>
       <c r="J81" s="2"/>
@@ -4805,8 +4466,8 @@
       <c r="A82" s="103"/>
       <c r="B82" s="104"/>
       <c r="E82" s="103"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="103"/>
       <c r="H82" s="106"/>
       <c r="I82" s="106"/>
       <c r="J82" s="2"/>
@@ -4835,8 +4496,8 @@
       <c r="A83" s="103"/>
       <c r="B83" s="104"/>
       <c r="E83" s="103"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
       <c r="H83" s="106"/>
       <c r="I83" s="106"/>
       <c r="J83" s="2"/>
@@ -5626,7 +5287,7 @@
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
-      <c r="Q109" s="112"/>
+      <c r="Q109" s="3"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
@@ -5656,7 +5317,7 @@
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
-      <c r="Q110" s="112"/>
+      <c r="Q110" s="3"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
@@ -5686,7 +5347,7 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
-      <c r="Q111" s="112"/>
+      <c r="Q111" s="3"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
@@ -5716,7 +5377,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
-      <c r="Q112" s="112"/>
+      <c r="Q112" s="3"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
@@ -5746,7 +5407,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
-      <c r="Q113" s="112"/>
+      <c r="Q113" s="3"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
@@ -5776,7 +5437,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
-      <c r="Q114" s="112"/>
+      <c r="Q114" s="3"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -5806,7 +5467,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="112"/>
+      <c r="Q115" s="3"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
@@ -5836,7 +5497,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
-      <c r="Q116" s="112"/>
+      <c r="Q116" s="3"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
@@ -5866,7 +5527,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-      <c r="Q117" s="112"/>
+      <c r="Q117" s="3"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
@@ -6303,7 +5964,9 @@
     </row>
     <row r="132" spans="1:30" customHeight="1" ht="15">
       <c r="A132" s="103"/>
-      <c r="B132" s="104"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
       <c r="E132" s="103"/>
       <c r="F132" s="103"/>
       <c r="G132" s="103"/>
@@ -6333,7 +5996,9 @@
     </row>
     <row r="133" spans="1:30" customHeight="1" ht="15">
       <c r="A133" s="103"/>
-      <c r="B133" s="104"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
       <c r="E133" s="103"/>
       <c r="F133" s="103"/>
       <c r="G133" s="103"/>
@@ -6363,7 +6028,9 @@
     </row>
     <row r="134" spans="1:30" customHeight="1" ht="15">
       <c r="A134" s="103"/>
-      <c r="B134" s="104"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
       <c r="E134" s="103"/>
       <c r="F134" s="103"/>
       <c r="G134" s="103"/>
@@ -6393,7 +6060,9 @@
     </row>
     <row r="135" spans="1:30" customHeight="1" ht="15">
       <c r="A135" s="103"/>
-      <c r="B135" s="104"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
       <c r="E135" s="103"/>
       <c r="F135" s="103"/>
       <c r="G135" s="103"/>
@@ -6423,7 +6092,9 @@
     </row>
     <row r="136" spans="1:30" customHeight="1" ht="15">
       <c r="A136" s="103"/>
-      <c r="B136" s="104"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
       <c r="E136" s="103"/>
       <c r="F136" s="103"/>
       <c r="G136" s="103"/>
@@ -6453,7 +6124,9 @@
     </row>
     <row r="137" spans="1:30" customHeight="1" ht="15">
       <c r="A137" s="103"/>
-      <c r="B137" s="104"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
       <c r="E137" s="103"/>
       <c r="F137" s="103"/>
       <c r="G137" s="103"/>
@@ -6483,7 +6156,9 @@
     </row>
     <row r="138" spans="1:30" customHeight="1" ht="15">
       <c r="A138" s="103"/>
-      <c r="B138" s="104"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
       <c r="E138" s="103"/>
       <c r="F138" s="103"/>
       <c r="G138" s="103"/>
@@ -6513,7 +6188,9 @@
     </row>
     <row r="139" spans="1:30" customHeight="1" ht="15">
       <c r="A139" s="103"/>
-      <c r="B139" s="104"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
       <c r="E139" s="103"/>
       <c r="F139" s="103"/>
       <c r="G139" s="103"/>
@@ -6543,7 +6220,9 @@
     </row>
     <row r="140" spans="1:30" customHeight="1" ht="15">
       <c r="A140" s="103"/>
-      <c r="B140" s="104"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
       <c r="E140" s="103"/>
       <c r="F140" s="103"/>
       <c r="G140" s="103"/>
@@ -7027,8 +6706,8 @@
       <c r="E155" s="103"/>
       <c r="F155" s="103"/>
       <c r="G155" s="103"/>
-      <c r="H155" s="106"/>
-      <c r="I155" s="106"/>
+      <c r="H155" s="103"/>
+      <c r="I155" s="103"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -7059,8 +6738,8 @@
       <c r="E156" s="103"/>
       <c r="F156" s="103"/>
       <c r="G156" s="103"/>
-      <c r="H156" s="106"/>
-      <c r="I156" s="106"/>
+      <c r="H156" s="103"/>
+      <c r="I156" s="103"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -7091,8 +6770,8 @@
       <c r="E157" s="103"/>
       <c r="F157" s="103"/>
       <c r="G157" s="103"/>
-      <c r="H157" s="106"/>
-      <c r="I157" s="106"/>
+      <c r="H157" s="103"/>
+      <c r="I157" s="103"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -7123,8 +6802,8 @@
       <c r="E158" s="103"/>
       <c r="F158" s="103"/>
       <c r="G158" s="103"/>
-      <c r="H158" s="106"/>
-      <c r="I158" s="106"/>
+      <c r="H158" s="103"/>
+      <c r="I158" s="103"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -7155,8 +6834,8 @@
       <c r="E159" s="103"/>
       <c r="F159" s="103"/>
       <c r="G159" s="103"/>
-      <c r="H159" s="106"/>
-      <c r="I159" s="106"/>
+      <c r="H159" s="103"/>
+      <c r="I159" s="103"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
@@ -7187,8 +6866,8 @@
       <c r="E160" s="103"/>
       <c r="F160" s="103"/>
       <c r="G160" s="103"/>
-      <c r="H160" s="106"/>
-      <c r="I160" s="106"/>
+      <c r="H160" s="103"/>
+      <c r="I160" s="103"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -7219,8 +6898,8 @@
       <c r="E161" s="103"/>
       <c r="F161" s="103"/>
       <c r="G161" s="103"/>
-      <c r="H161" s="106"/>
-      <c r="I161" s="106"/>
+      <c r="H161" s="103"/>
+      <c r="I161" s="103"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -7251,8 +6930,8 @@
       <c r="E162" s="103"/>
       <c r="F162" s="103"/>
       <c r="G162" s="103"/>
-      <c r="H162" s="106"/>
-      <c r="I162" s="106"/>
+      <c r="H162" s="103"/>
+      <c r="I162" s="103"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -7283,8 +6962,8 @@
       <c r="E163" s="103"/>
       <c r="F163" s="103"/>
       <c r="G163" s="103"/>
-      <c r="H163" s="106"/>
-      <c r="I163" s="106"/>
+      <c r="H163" s="103"/>
+      <c r="I163" s="103"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -7600,7 +7279,7 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="103"/>
+      <c r="E173" s="2"/>
       <c r="F173" s="103"/>
       <c r="G173" s="103"/>
       <c r="H173" s="103"/>
@@ -7632,7 +7311,7 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="103"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="103"/>
       <c r="G174" s="103"/>
       <c r="H174" s="103"/>
@@ -7660,13 +7339,13 @@
       <c r="AD174" s="1"/>
     </row>
     <row r="175" spans="1:30" customHeight="1" ht="15">
-      <c r="A175" s="103"/>
+      <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="103"/>
-      <c r="F175" s="103"/>
-      <c r="G175" s="103"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
       <c r="H175" s="103"/>
       <c r="I175" s="103"/>
       <c r="J175" s="2"/>
@@ -7692,13 +7371,13 @@
       <c r="AD175" s="1"/>
     </row>
     <row r="176" spans="1:30" customHeight="1" ht="15">
-      <c r="A176" s="103"/>
+      <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="103"/>
-      <c r="F176" s="103"/>
-      <c r="G176" s="103"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
       <c r="H176" s="103"/>
       <c r="I176" s="103"/>
       <c r="J176" s="2"/>
@@ -7724,13 +7403,13 @@
       <c r="AD176" s="1"/>
     </row>
     <row r="177" spans="1:30" customHeight="1" ht="15">
-      <c r="A177" s="103"/>
+      <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="103"/>
-      <c r="F177" s="103"/>
-      <c r="G177" s="103"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
       <c r="H177" s="103"/>
       <c r="I177" s="103"/>
       <c r="J177" s="2"/>
@@ -7756,13 +7435,13 @@
       <c r="AD177" s="1"/>
     </row>
     <row r="178" spans="1:30" customHeight="1" ht="15">
-      <c r="A178" s="103"/>
+      <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="103"/>
-      <c r="F178" s="103"/>
-      <c r="G178" s="103"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
       <c r="H178" s="103"/>
       <c r="I178" s="103"/>
       <c r="J178" s="2"/>
@@ -7788,13 +7467,13 @@
       <c r="AD178" s="1"/>
     </row>
     <row r="179" spans="1:30" customHeight="1" ht="15">
-      <c r="A179" s="103"/>
+      <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="103"/>
-      <c r="F179" s="103"/>
-      <c r="G179" s="103"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
       <c r="H179" s="103"/>
       <c r="I179" s="103"/>
       <c r="J179" s="2"/>
@@ -7820,13 +7499,13 @@
       <c r="AD179" s="1"/>
     </row>
     <row r="180" spans="1:30" customHeight="1" ht="15">
-      <c r="A180" s="103"/>
+      <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="103"/>
-      <c r="F180" s="103"/>
-      <c r="G180" s="103"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="103"/>
       <c r="I180" s="103"/>
       <c r="J180" s="2"/>
@@ -7851,16 +7530,16 @@
       <c r="AC180" s="1"/>
       <c r="AD180" s="1"/>
     </row>
-    <row r="181" spans="1:30" customHeight="1" ht="15">
-      <c r="A181" s="103"/>
+    <row r="181" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="103"/>
-      <c r="F181" s="103"/>
-      <c r="G181" s="103"/>
-      <c r="H181" s="103"/>
-      <c r="I181" s="103"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
@@ -7883,16 +7562,16 @@
       <c r="AC181" s="1"/>
       <c r="AD181" s="1"/>
     </row>
-    <row r="182" spans="1:30" customHeight="1" ht="15">
-      <c r="A182" s="103"/>
+    <row r="182" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="103"/>
-      <c r="G182" s="103"/>
-      <c r="H182" s="103"/>
-      <c r="I182" s="103"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -7915,16 +7594,16 @@
       <c r="AC182" s="1"/>
       <c r="AD182" s="1"/>
     </row>
-    <row r="183" spans="1:30" customHeight="1" ht="15">
-      <c r="A183" s="103"/>
+    <row r="183" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="103"/>
-      <c r="G183" s="103"/>
-      <c r="H183" s="103"/>
-      <c r="I183" s="103"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -7947,7 +7626,7 @@
       <c r="AC183" s="1"/>
       <c r="AD183" s="1"/>
     </row>
-    <row r="184" spans="1:30" customHeight="1" ht="15">
+    <row r="184" spans="1:30" customHeight="1" ht="15.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7955,8 +7634,8 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-      <c r="H184" s="103"/>
-      <c r="I184" s="103"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -7979,7 +7658,7 @@
       <c r="AC184" s="1"/>
       <c r="AD184" s="1"/>
     </row>
-    <row r="185" spans="1:30" customHeight="1" ht="15">
+    <row r="185" spans="1:30" customHeight="1" ht="15.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7987,8 +7666,8 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="103"/>
-      <c r="I185" s="103"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
@@ -8011,7 +7690,7 @@
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
     </row>
-    <row r="186" spans="1:30" customHeight="1" ht="15">
+    <row r="186" spans="1:30" customHeight="1" ht="15.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8019,8 +7698,8 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="103"/>
-      <c r="I186" s="103"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -8043,7 +7722,7 @@
       <c r="AC186" s="1"/>
       <c r="AD186" s="1"/>
     </row>
-    <row r="187" spans="1:30" customHeight="1" ht="15">
+    <row r="187" spans="1:30" customHeight="1" ht="15.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8051,8 +7730,8 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-      <c r="H187" s="103"/>
-      <c r="I187" s="103"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -8075,7 +7754,7 @@
       <c r="AC187" s="1"/>
       <c r="AD187" s="1"/>
     </row>
-    <row r="188" spans="1:30" customHeight="1" ht="15">
+    <row r="188" spans="1:30" customHeight="1" ht="15.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8083,8 +7762,8 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-      <c r="H188" s="103"/>
-      <c r="I188" s="103"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -8107,7 +7786,7 @@
       <c r="AC188" s="1"/>
       <c r="AD188" s="1"/>
     </row>
-    <row r="189" spans="1:30" customHeight="1" ht="15">
+    <row r="189" spans="1:30" customHeight="1" ht="15.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8115,8 +7794,8 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-      <c r="H189" s="103"/>
-      <c r="I189" s="103"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -9324,357 +9003,78 @@
       <c r="AD226" s="1"/>
     </row>
     <row r="227" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
-      <c r="Q227" s="3"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="X227" s="1"/>
-      <c r="Y227" s="1"/>
-      <c r="Z227" s="1"/>
-      <c r="AA227" s="1"/>
-      <c r="AB227" s="1"/>
-      <c r="AC227" s="1"/>
-      <c r="AD227" s="1"/>
+      <c r="A227" s="57"/>
+      <c r="B227" s="57"/>
+      <c r="C227" s="57"/>
+      <c r="D227" s="57"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="7"/>
+      <c r="J227" s="7"/>
+      <c r="K227" s="7"/>
+      <c r="L227" s="7"/>
+      <c r="M227" s="7"/>
+      <c r="N227" s="8"/>
+      <c r="O227" s="8"/>
+      <c r="P227" s="8"/>
+      <c r="Q227" s="8"/>
+      <c r="R227" s="57"/>
+      <c r="S227" s="57"/>
+      <c r="T227" s="57"/>
+      <c r="U227" s="57"/>
+      <c r="V227" s="57"/>
+      <c r="W227" s="57"/>
+      <c r="X227" s="57"/>
+      <c r="Y227" s="57"/>
+      <c r="Z227" s="57"/>
+      <c r="AA227" s="57"/>
+      <c r="AB227" s="57"/>
+      <c r="AC227" s="57"/>
+      <c r="AD227" s="57"/>
     </row>
     <row r="228" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-      <c r="Q228" s="3"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-      <c r="Y228" s="1"/>
-      <c r="Z228" s="1"/>
-      <c r="AA228" s="1"/>
-      <c r="AB228" s="1"/>
-      <c r="AC228" s="1"/>
-      <c r="AD228" s="1"/>
-    </row>
-    <row r="229" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
-      <c r="Q229" s="3"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="X229" s="1"/>
-      <c r="Y229" s="1"/>
-      <c r="Z229" s="1"/>
-      <c r="AA229" s="1"/>
-      <c r="AB229" s="1"/>
-      <c r="AC229" s="1"/>
-      <c r="AD229" s="1"/>
-    </row>
-    <row r="230" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
-      <c r="P230" s="3"/>
-      <c r="Q230" s="3"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
-      <c r="Y230" s="1"/>
-      <c r="Z230" s="1"/>
-      <c r="AA230" s="1"/>
-      <c r="AB230" s="1"/>
-      <c r="AC230" s="1"/>
-      <c r="AD230" s="1"/>
-    </row>
-    <row r="231" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
-      <c r="P231" s="3"/>
-      <c r="Q231" s="3"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
-      <c r="AA231" s="1"/>
-      <c r="AB231" s="1"/>
-      <c r="AC231" s="1"/>
-      <c r="AD231" s="1"/>
-    </row>
-    <row r="232" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
-      <c r="P232" s="3"/>
-      <c r="Q232" s="3"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="X232" s="1"/>
-      <c r="Y232" s="1"/>
-      <c r="Z232" s="1"/>
-      <c r="AA232" s="1"/>
-      <c r="AB232" s="1"/>
-      <c r="AC232" s="1"/>
-      <c r="AD232" s="1"/>
-    </row>
-    <row r="233" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="3"/>
-      <c r="O233" s="3"/>
-      <c r="P233" s="3"/>
-      <c r="Q233" s="3"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="X233" s="1"/>
-      <c r="Y233" s="1"/>
-      <c r="Z233" s="1"/>
-      <c r="AA233" s="1"/>
-      <c r="AB233" s="1"/>
-      <c r="AC233" s="1"/>
-      <c r="AD233" s="1"/>
-    </row>
-    <row r="234" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
-      <c r="Q234" s="3"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="X234" s="1"/>
-      <c r="Y234" s="1"/>
-      <c r="Z234" s="1"/>
-      <c r="AA234" s="1"/>
-      <c r="AB234" s="1"/>
-      <c r="AC234" s="1"/>
-      <c r="AD234" s="1"/>
-    </row>
-    <row r="235" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-      <c r="Q235" s="3"/>
-      <c r="R235" s="1"/>
-      <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="U235" s="1"/>
-      <c r="V235" s="1"/>
-      <c r="W235" s="1"/>
-      <c r="X235" s="1"/>
-      <c r="Y235" s="1"/>
-      <c r="Z235" s="1"/>
-      <c r="AA235" s="1"/>
-      <c r="AB235" s="1"/>
-      <c r="AC235" s="1"/>
-      <c r="AD235" s="1"/>
-    </row>
-    <row r="236" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A236" s="57"/>
-      <c r="B236" s="57"/>
-      <c r="C236" s="57"/>
-      <c r="D236" s="57"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="7"/>
-      <c r="K236" s="7"/>
-      <c r="L236" s="7"/>
-      <c r="M236" s="7"/>
-      <c r="N236" s="8"/>
-      <c r="O236" s="8"/>
-      <c r="P236" s="8"/>
-      <c r="Q236" s="8"/>
-      <c r="R236" s="57"/>
-      <c r="S236" s="57"/>
-      <c r="T236" s="57"/>
-      <c r="U236" s="57"/>
-      <c r="V236" s="57"/>
-      <c r="W236" s="57"/>
-      <c r="X236" s="57"/>
-      <c r="Y236" s="57"/>
-      <c r="Z236" s="57"/>
-      <c r="AA236" s="57"/>
-      <c r="AB236" s="57"/>
-      <c r="AC236" s="57"/>
-      <c r="AD236" s="57"/>
-    </row>
-    <row r="237" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A237" s="57"/>
-      <c r="B237" s="57"/>
-      <c r="C237" s="57"/>
-      <c r="D237" s="57"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="7"/>
-      <c r="L237" s="7"/>
-      <c r="M237" s="7"/>
-      <c r="N237" s="8"/>
-      <c r="O237" s="8"/>
-      <c r="P237" s="8"/>
-      <c r="Q237" s="8"/>
-      <c r="R237" s="57"/>
-      <c r="S237" s="57"/>
-      <c r="T237" s="57"/>
-      <c r="U237" s="57"/>
-      <c r="V237" s="57"/>
-      <c r="W237" s="57"/>
-      <c r="X237" s="57"/>
-      <c r="Y237" s="57"/>
-      <c r="Z237" s="57"/>
-      <c r="AA237" s="57"/>
-      <c r="AB237" s="57"/>
-      <c r="AC237" s="57"/>
-      <c r="AD237" s="57"/>
-    </row>
+      <c r="A228" s="57"/>
+      <c r="B228" s="57"/>
+      <c r="C228" s="57"/>
+      <c r="D228" s="57"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="7"/>
+      <c r="L228" s="7"/>
+      <c r="M228" s="7"/>
+      <c r="N228" s="8"/>
+      <c r="O228" s="8"/>
+      <c r="P228" s="8"/>
+      <c r="Q228" s="8"/>
+      <c r="R228" s="57"/>
+      <c r="S228" s="57"/>
+      <c r="T228" s="57"/>
+      <c r="U228" s="57"/>
+      <c r="V228" s="57"/>
+      <c r="W228" s="57"/>
+      <c r="X228" s="57"/>
+      <c r="Y228" s="57"/>
+      <c r="Z228" s="57"/>
+      <c r="AA228" s="57"/>
+      <c r="AB228" s="57"/>
+      <c r="AC228" s="57"/>
+      <c r="AD228" s="57"/>
+    </row>
+    <row r="229" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="230" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="231" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="232" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="233" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="234" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="235" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="236" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="237" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="238" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="239" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="240" spans="1:30" customHeight="1" ht="15.75"/>
@@ -10446,15 +9846,6 @@
     <row r="1006" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="1007" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="1008" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1009" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1010" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1011" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1012" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1013" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1014" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1015" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1016" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1017" spans="1:30" customHeight="1" ht="15.75"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="G3:J3"/>
@@ -10480,22 +9871,31 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:P8"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:R12"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B94:D94"/>
@@ -10522,6 +9922,13 @@
     <mergeCell ref="B115:D115"/>
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="B119:D119"/>
     <mergeCell ref="B120:D120"/>
@@ -10529,22 +9936,15 @@
     <mergeCell ref="B122:D122"/>
     <mergeCell ref="B123:D123"/>
     <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10585,31 +9985,13 @@
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.387917" bottom="0.45125" header="0" footer="0"/>
